--- a/PID参数表.xlsx
+++ b/PID参数表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xinlly\Documents\Proteus\KeilProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6757902-A0BD-4B85-9253-4BBC90787A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A83AC4E-C532-44C7-A144-892B1D122D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="1530" windowWidth="21600" windowHeight="11385" xr2:uid="{21A35B7D-32F9-4C01-9005-442000C61E92}"/>
+    <workbookView xWindow="1920" yWindow="-13365" windowWidth="21600" windowHeight="11640" xr2:uid="{21A35B7D-32F9-4C01-9005-442000C61E92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,10 @@
   </si>
   <si>
     <t>td</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetRPM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +430,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -441,14 +445,20 @@
       <c r="B1">
         <v>80</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1">
+        <v>120</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <f>0.84/3</f>
-        <v>0.27999999999999997</v>
+        <f>127/300/8</f>
+        <v>5.2916666666666667E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -457,22 +467,30 @@
       </c>
       <c r="B3">
         <f>B2*B1/1000/D3</f>
-        <v>0.13999999999999999</v>
+        <v>2.9398148148148149E-2</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3">
-        <f>80/1000*2</f>
-        <v>0.16</v>
+        <f>80/1000*1.8</f>
+        <v>0.14400000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4">
+        <f>B2*D4/B1*1000</f>
+        <v>2.6458333333333337E-2</v>
+      </c>
       <c r="C4" t="s">
         <v>5</v>
+      </c>
+      <c r="D4">
+        <f>80/1000*0.5</f>
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
